--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
-    <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId2"/>
+    <sheet name="학생정보 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="447">
   <si>
     <t>국어국문</t>
   </si>
@@ -1304,6 +1305,146 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 3-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1656,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1670,9 +1811,11 @@
     <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1691,8 +1834,14 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1712,8 +1861,12 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1728,13 +1881,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1749,13 +1906,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1775,8 +1936,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1791,13 +1956,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1817,8 +1986,12 @@
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1833,13 +2006,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1854,13 +2031,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1875,13 +2056,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1896,13 +2081,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1922,8 +2111,12 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1943,8 +2136,12 @@
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1964,8 +2161,12 @@
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1980,13 +2181,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" t="str">
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -2001,13 +2206,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2022,13 +2231,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" t="str">
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2048,8 +2261,12 @@
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2064,13 +2281,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" t="str">
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2085,13 +2306,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2106,13 +2331,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" t="str">
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2132,8 +2361,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" t="str">
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2148,13 +2381,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" t="str">
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2174,8 +2411,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" t="str">
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2190,13 +2431,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" t="str">
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2216,8 +2461,12 @@
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" t="str">
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2232,13 +2481,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" t="str">
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2258,8 +2511,12 @@
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" t="str">
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2274,13 +2531,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" t="str">
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2300,8 +2561,12 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" t="str">
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2321,8 +2586,12 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" t="str">
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2337,13 +2606,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" t="str">
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2363,8 +2636,12 @@
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" t="str">
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2384,8 +2661,12 @@
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" t="str">
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2405,8 +2686,12 @@
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" t="str">
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2421,13 +2706,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" t="str">
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2442,13 +2731,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" t="str">
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2463,13 +2756,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" t="str">
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2484,13 +2781,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" t="str">
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2510,8 +2811,12 @@
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40" t="str">
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2526,13 +2831,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41" t="str">
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2547,13 +2856,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42" t="str">
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2573,8 +2886,12 @@
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H43" t="str">
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2589,13 +2906,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H44" t="str">
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2610,13 +2931,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H45" t="str">
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2631,13 +2956,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H46" t="str">
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2657,8 +2986,12 @@
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H47" t="str">
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2673,13 +3006,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" t="str">
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2694,13 +3031,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49" t="str">
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2720,8 +3061,12 @@
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50" t="str">
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2741,8 +3086,12 @@
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51" t="str">
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2757,13 +3106,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52" t="str">
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2778,13 +3131,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53" t="str">
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2799,13 +3156,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54" t="str">
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2820,13 +3181,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55" t="str">
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2841,13 +3206,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56" t="str">
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2862,13 +3231,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57" t="str">
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2883,13 +3256,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58" t="str">
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2909,8 +3286,12 @@
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59" t="str">
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2925,13 +3306,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H60" t="str">
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2946,13 +3331,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H61" t="str">
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2967,13 +3356,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H62" t="str">
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2988,13 +3381,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63" t="str">
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3014,8 +3411,12 @@
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64" t="str">
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3035,8 +3436,12 @@
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65" t="str">
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3051,13 +3456,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66" t="str">
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3077,8 +3486,12 @@
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67" t="str">
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3093,13 +3506,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68" t="str">
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3114,13 +3531,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69" t="str">
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3140,8 +3561,12 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70" t="str">
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3156,13 +3581,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71" t="str">
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3177,13 +3606,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H72" t="str">
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3198,13 +3631,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73" t="str">
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3219,13 +3656,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74" t="str">
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3245,8 +3686,12 @@
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75" t="str">
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3261,13 +3706,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H76" t="str">
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3287,8 +3736,12 @@
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77" t="str">
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3303,13 +3756,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H78" t="str">
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3324,13 +3781,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79" t="str">
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3350,8 +3811,12 @@
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H80" t="str">
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3371,8 +3836,12 @@
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H81" t="str">
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3387,13 +3856,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H82" t="str">
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3413,8 +3886,12 @@
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H83" t="str">
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3429,13 +3906,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H84" t="str">
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3450,13 +3931,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H85" t="str">
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3471,13 +3956,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H86" t="str">
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3492,13 +3981,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H87" t="str">
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3518,8 +4011,12 @@
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H88" t="str">
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3539,8 +4036,12 @@
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89" t="str">
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3555,13 +4056,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90" t="str">
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3576,13 +4081,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91" t="str">
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3602,8 +4111,12 @@
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H92" t="str">
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3618,13 +4131,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H93" t="str">
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3639,13 +4156,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H94" t="str">
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3660,13 +4181,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H95" t="str">
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3681,13 +4206,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H96" t="str">
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3702,13 +4231,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H97" t="str">
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3723,13 +4256,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H98" t="str">
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3744,13 +4281,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H99" t="str">
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3770,8 +4311,12 @@
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H100" t="str">
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3786,10 +4331,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3800,6 +4349,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-591-2925</v>
+      </c>
+      <c r="F2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-725-3068</v>
+      </c>
+      <c r="F3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-748-4277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-552-8650</v>
+      </c>
+      <c r="F5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-663-6827</v>
+      </c>
+      <c r="F6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -3811,8 +4509,8 @@
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -3846,14 +4544,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7212-0465</v>
+        <v>010-9029-1828</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3868,14 +4566,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7548-1301</v>
+        <v>010-2134-1311</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3890,7 +4588,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2081-5907</v>
+        <v>010-9820-4421</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
@@ -3912,7 +4610,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9376-0571</v>
+        <v>010-7887-2027</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
@@ -3934,14 +4632,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2200-6211</v>
+        <v>010-6129-7740</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3956,7 +4654,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9204-1469</v>
+        <v>010-5175-8280</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
@@ -3978,7 +4676,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9417-7482</v>
+        <v>010-3002-3604</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
@@ -4000,14 +4698,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6552-9531</v>
+        <v>010-2946-8669</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4022,7 +4720,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3155-9106</v>
+        <v>010-7847-2912</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
@@ -4044,7 +4742,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2031-9486</v>
+        <v>010-5162-9362</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
@@ -4066,14 +4764,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6120-6804</v>
+        <v>010-8691-5692</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4088,14 +4786,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7450-2703</v>
+        <v>010-7675-5010</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4110,14 +4808,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7966-9957</v>
+        <v>010-1611-8327</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4132,14 +4830,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3097-6541</v>
+        <v>010-9250-5424</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4154,14 +4852,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1737-8376</v>
+        <v>010-1831-1175</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4176,14 +4874,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3848-1094</v>
+        <v>010-9723-7533</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4198,14 +4896,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5737-6418</v>
+        <v>010-7795-9065</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4220,7 +4918,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2985-1356</v>
+        <v>010-2895-1227</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
@@ -4242,7 +4940,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2640-0369</v>
+        <v>010-9935-3057</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
@@ -4264,14 +4962,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6044-8784</v>
+        <v>010-3496-5346</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4286,14 +4984,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2781-8566</v>
+        <v>010-0385-0009</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4308,14 +5006,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0865-1486</v>
+        <v>010-8960-4117</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4330,14 +5028,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9412-1075</v>
+        <v>010-2056-1970</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4352,14 +5050,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3075-3839</v>
+        <v>010-6115-7468</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4374,14 +5072,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4003-0646</v>
+        <v>010-6289-3881</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4396,7 +5094,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7927-2275</v>
+        <v>010-4211-3929</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
@@ -4418,14 +5116,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9137-8651</v>
+        <v>010-4664-5287</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4440,14 +5138,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2019-1637</v>
+        <v>010-8675-3198</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4462,14 +5160,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8250-8110</v>
+        <v>010-4371-6767</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4484,14 +5182,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5753-6390</v>
+        <v>010-3286-1506</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4506,7 +5204,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7187-1877</v>
+        <v>010-5275-1043</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
@@ -4528,7 +5226,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6223-7000</v>
+        <v>010-1495-6054</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
@@ -4550,14 +5248,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5266-2771</v>
+        <v>010-9438-8739</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4572,14 +5270,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6486-7196</v>
+        <v>010-0465-1945</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4594,7 +5292,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7779-2916</v>
+        <v>010-1996-0551</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
@@ -4616,14 +5314,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9438-3744</v>
+        <v>010-8502-3945</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4638,7 +5336,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8690-1476</v>
+        <v>010-7489-6736</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
@@ -4660,14 +5358,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1918-4779</v>
+        <v>010-1587-9514</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4682,14 +5380,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8290-5619</v>
+        <v>010-5763-5413</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4704,7 +5402,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6631-9312</v>
+        <v>010-1995-7350</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4726,14 +5424,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4341-8964</v>
+        <v>010-1007-1615</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4748,14 +5446,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2331-3413</v>
+        <v>010-6142-5828</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4770,14 +5468,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9835-6502</v>
+        <v>010-7177-1013</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4792,14 +5490,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2345-5264</v>
+        <v>010-3610-8417</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4814,14 +5512,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6415-6365</v>
+        <v>010-2300-4644</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4836,14 +5534,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2240-7206</v>
+        <v>010-6194-4938</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4858,14 +5556,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7566-7484</v>
+        <v>010-1585-7192</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4880,14 +5578,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2303-9052</v>
+        <v>010-5329-0796</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4902,14 +5600,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5853-9670</v>
+        <v>010-0742-2852</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4924,14 +5622,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9509-6024</v>
+        <v>010-1451-0667</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4946,14 +5644,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4525-1078</v>
+        <v>010-8305-3193</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4968,14 +5666,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5063-3112</v>
+        <v>010-6263-1891</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4990,7 +5688,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0364-7809</v>
+        <v>010-1126-7185</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
@@ -5012,14 +5710,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2565-4946</v>
+        <v>010-3184-5669</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5034,14 +5732,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6610-9387</v>
+        <v>010-4591-9422</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5056,14 +5754,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4754-4685</v>
+        <v>010-5479-3295</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5078,14 +5776,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7297-0698</v>
+        <v>010-2242-8405</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5100,14 +5798,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6595-4624</v>
+        <v>010-7020-2107</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5122,14 +5820,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6224-3267</v>
+        <v>010-8793-6387</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5144,7 +5842,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6916-8153</v>
+        <v>010-0589-9123</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5166,7 +5864,7 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1435-9885</v>
+        <v>010-2216-2803</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
@@ -5188,14 +5886,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8148-4006</v>
+        <v>010-1602-3517</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5210,14 +5908,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2240-5156</v>
+        <v>010-7560-7484</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5232,7 +5930,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9197-3762</v>
+        <v>010-9975-7296</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
@@ -5254,14 +5952,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2733-4224</v>
+        <v>010-9584-3039</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5276,14 +5974,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-8158-5151</v>
+        <v>010-8872-5697</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5298,14 +5996,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9259-8323</v>
+        <v>010-3491-2932</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5320,14 +6018,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2857-9530</v>
+        <v>010-8006-1237</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5342,14 +6040,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0585-8538</v>
+        <v>010-2591-3140</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5364,7 +6062,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4397-7356</v>
+        <v>010-4045-6127</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5386,14 +6084,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7295-8075</v>
+        <v>010-8134-4436</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5408,7 +6106,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4923-7583</v>
+        <v>010-9884-3680</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5430,14 +6128,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3044-1298</v>
+        <v>010-1616-2533</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5452,7 +6150,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7886-9473</v>
+        <v>010-4693-6555</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
@@ -5474,7 +6172,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8073-0556</v>
+        <v>010-2008-4322</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5496,14 +6194,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4263-0411</v>
+        <v>010-7767-9918</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5518,7 +6216,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2114-7994</v>
+        <v>010-8923-7082</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
@@ -5540,14 +6238,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6245-3676</v>
+        <v>010-8096-3875</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5562,14 +6260,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5459-8784</v>
+        <v>010-4541-8415</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5584,14 +6282,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7463-4583</v>
+        <v>010-8145-0896</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5606,14 +6304,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7875-4071</v>
+        <v>010-2155-8283</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5628,7 +6326,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9720-2650</v>
+        <v>010-7026-9516</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
@@ -5650,14 +6348,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3783-2965</v>
+        <v>010-7631-6033</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5672,14 +6370,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5708-2510</v>
+        <v>010-6508-2153</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5694,7 +6392,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1167-2880</v>
+        <v>010-4473-5355</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -5716,14 +6414,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0489-8475</v>
+        <v>010-3877-4754</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5738,14 +6436,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0329-6383</v>
+        <v>010-7800-4906</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5760,14 +6458,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3815-5387</v>
+        <v>010-7953-0092</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5782,14 +6480,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9770-5008</v>
+        <v>010-3015-7510</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5804,7 +6502,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7735-7260</v>
+        <v>010-9048-8397</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
@@ -5826,14 +6524,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3064-6258</v>
+        <v>010-0120-6810</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5848,14 +6546,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0512-2445</v>
+        <v>010-0936-7814</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5870,14 +6568,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3501-9183</v>
+        <v>010-4020-2076</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5892,14 +6590,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6561-7894</v>
+        <v>010-0407-7030</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5914,7 +6612,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0923-0284</v>
+        <v>010-3200-2494</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -5936,7 +6634,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8918-6167</v>
+        <v>010-0601-0373</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
@@ -5958,14 +6656,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7248-6200</v>
+        <v>010-5905-5468</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5980,14 +6678,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8768-7693</v>
+        <v>010-3172-8277</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6002,14 +6700,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3121-4299</v>
+        <v>010-5904-3901</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6024,14 +6722,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7946-8581</v>
+        <v>010-5150-3614</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6044,373 +6742,2547 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
         <v>99</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
         <v>87</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
         <v>83</v>
       </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
-      <c r="B44" t="s">
-        <v>39</v>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>57</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>95</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>86</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="446">
   <si>
     <t>국어국문</t>
   </si>
@@ -1369,10 +1369,6 @@
   </si>
   <si>
     <t>연락처</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과연락처</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1797,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1810,12 +1806,12 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1832,16 +1828,13 @@
         <v>405</v>
       </c>
       <c r="F1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" t="s">
         <v>410</v>
       </c>
-      <c r="G1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1858,15 +1851,15 @@
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="str">
+        <f>VLOOKUP(G2,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="str">
-        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1881,17 +1874,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(G3,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="str">
-        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1906,17 +1899,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(G4,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="str">
-        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1931,17 +1924,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(G5,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="str">
-        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1958,15 +1951,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="str">
+        <f>VLOOKUP(G6,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="str">
-        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1981,17 +1974,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(G7,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="str">
-        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -2006,17 +1999,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(G8,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="str">
-        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -2033,15 +2026,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="str">
+        <f>VLOOKUP(G9,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="str">
-        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -2056,17 +2049,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(G10,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="str">
-        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -2081,17 +2074,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(G11,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="str">
-        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -2106,17 +2099,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(G12,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="str">
-        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -2131,17 +2124,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(G13,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="str">
-        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -2158,15 +2151,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="str">
+        <f>VLOOKUP(G14,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="str">
-        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -2181,17 +2174,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(G15,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" t="str">
-        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -2206,17 +2199,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(G16,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="H16" t="str">
-        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2231,17 +2224,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(G17,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" t="str">
-        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2256,17 +2249,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(G18,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="H18" t="str">
-        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2283,15 +2276,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="str">
+        <f>VLOOKUP(G19,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G19" t="s">
         <v>10</v>
       </c>
-      <c r="H19" t="str">
-        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2306,17 +2299,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(G20,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G20" t="s">
         <v>10</v>
       </c>
-      <c r="H20" t="str">
-        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2331,17 +2324,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(G21,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="H21" t="str">
-        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2356,17 +2349,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(G22,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G22" t="s">
         <v>48</v>
       </c>
-      <c r="H22" t="str">
-        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2381,17 +2374,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(G23,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" t="str">
-        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2406,17 +2399,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(G24,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G24" t="s">
         <v>48</v>
       </c>
-      <c r="H24" t="str">
-        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2433,15 +2426,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="str">
+        <f>VLOOKUP(G25,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G25" t="s">
         <v>48</v>
       </c>
-      <c r="H25" t="str">
-        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2458,15 +2451,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="str">
+        <f>VLOOKUP(G26,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G26" t="s">
         <v>39</v>
       </c>
-      <c r="H26" t="str">
-        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2481,17 +2474,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(G27,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G27" t="s">
         <v>39</v>
       </c>
-      <c r="H27" t="str">
-        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2506,17 +2499,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(G28,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G28" t="s">
         <v>0</v>
       </c>
-      <c r="H28" t="str">
-        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2531,17 +2524,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(G29,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G29" t="s">
         <v>5</v>
       </c>
-      <c r="H29" t="str">
-        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2556,17 +2549,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(G30,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G30" t="s">
         <v>5</v>
       </c>
-      <c r="H30" t="str">
-        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2581,17 +2574,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(G31,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G31" t="s">
         <v>5</v>
       </c>
-      <c r="H31" t="str">
-        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2606,17 +2599,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(G32,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G32" t="s">
         <v>0</v>
       </c>
-      <c r="H32" t="str">
-        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2633,15 +2626,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="str">
+        <f>VLOOKUP(G33,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G33" t="s">
         <v>10</v>
       </c>
-      <c r="H33" t="str">
-        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2656,17 +2649,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(G34,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G34" t="s">
         <v>0</v>
       </c>
-      <c r="H34" t="str">
-        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2681,17 +2674,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(G35,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G35" t="s">
         <v>48</v>
       </c>
-      <c r="H35" t="str">
-        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2706,17 +2699,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(G36,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="H36" t="str">
-        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2731,17 +2724,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(G37,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G37" t="s">
         <v>0</v>
       </c>
-      <c r="H37" t="str">
-        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2756,17 +2749,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(G38,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G38" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="str">
-        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2781,17 +2774,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(G39,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G39" t="s">
         <v>0</v>
       </c>
-      <c r="H39" t="str">
-        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2808,15 +2801,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="str">
+        <f>VLOOKUP(G40,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G40" t="s">
         <v>48</v>
       </c>
-      <c r="H40" t="str">
-        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2831,17 +2824,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(G41,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G41" t="s">
         <v>39</v>
       </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2856,17 +2849,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(G42,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G42" t="s">
         <v>10</v>
       </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2881,17 +2874,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(G43,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G43" t="s">
         <v>0</v>
       </c>
-      <c r="H43" t="str">
-        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2906,17 +2899,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(G44,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G44" t="s">
         <v>0</v>
       </c>
-      <c r="H44" t="str">
-        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2933,15 +2926,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="str">
+        <f>VLOOKUP(G45,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G45" t="s">
         <v>10</v>
       </c>
-      <c r="H45" t="str">
-        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2956,17 +2949,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(G46,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G46" t="s">
         <v>39</v>
       </c>
-      <c r="H46" t="str">
-        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2981,17 +2974,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(G47,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G47" t="s">
         <v>5</v>
       </c>
-      <c r="H47" t="str">
-        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -3006,17 +2999,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(G48,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G48" t="s">
         <v>39</v>
       </c>
-      <c r="H48" t="str">
-        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -3033,15 +3026,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="str">
+        <f>VLOOKUP(G49,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G49" t="s">
         <v>5</v>
       </c>
-      <c r="H49" t="str">
-        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -3056,17 +3049,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(G50,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G50" t="s">
         <v>0</v>
       </c>
-      <c r="H50" t="str">
-        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -3081,17 +3074,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(G51,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G51" t="s">
         <v>10</v>
       </c>
-      <c r="H51" t="str">
-        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -3106,17 +3099,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(G52,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G52" t="s">
         <v>48</v>
       </c>
-      <c r="H52" t="str">
-        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -3131,17 +3124,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(G53,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G53" t="s">
         <v>10</v>
       </c>
-      <c r="H53" t="str">
-        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -3156,17 +3149,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(G54,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G54" t="s">
         <v>39</v>
       </c>
-      <c r="H54" t="str">
-        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -3181,17 +3174,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(G55,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G55" t="s">
         <v>10</v>
       </c>
-      <c r="H55" t="str">
-        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -3206,17 +3199,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(G56,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G56" t="s">
         <v>10</v>
       </c>
-      <c r="H56" t="str">
-        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -3231,17 +3224,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP(G57,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G57" t="s">
         <v>48</v>
       </c>
-      <c r="H57" t="str">
-        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -3256,17 +3249,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP(G58,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G58" t="s">
         <v>48</v>
       </c>
-      <c r="H58" t="str">
-        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -3281,17 +3274,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(G59,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G59" t="s">
         <v>39</v>
       </c>
-      <c r="H59" t="str">
-        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -3306,17 +3299,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(G60,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G60" t="s">
         <v>5</v>
       </c>
-      <c r="H60" t="str">
-        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3331,17 +3324,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(G61,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G61" t="s">
         <v>0</v>
       </c>
-      <c r="H61" t="str">
-        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -3358,15 +3351,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="str">
+        <f>VLOOKUP(G62,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G62" t="s">
         <v>39</v>
       </c>
-      <c r="H62" t="str">
-        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -3381,17 +3374,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP(G63,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G63" t="s">
         <v>5</v>
       </c>
-      <c r="H63" t="str">
-        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3406,17 +3399,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <f>VLOOKUP(G64,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G64" t="s">
         <v>0</v>
       </c>
-      <c r="H64" t="str">
-        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3431,17 +3424,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <f>VLOOKUP(G65,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G65" t="s">
         <v>48</v>
       </c>
-      <c r="H65" t="str">
-        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3458,15 +3451,15 @@
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="str">
+        <f>VLOOKUP(G66,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G66" t="s">
         <v>5</v>
       </c>
-      <c r="H66" t="str">
-        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3483,15 +3476,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="str">
+        <f>VLOOKUP(G67,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G67" t="s">
         <v>48</v>
       </c>
-      <c r="H67" t="str">
-        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3508,15 +3501,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="str">
+        <f>VLOOKUP(G68,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G68" t="s">
         <v>10</v>
       </c>
-      <c r="H68" t="str">
-        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3531,17 +3524,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="str">
+        <f>VLOOKUP(G69,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G69" t="s">
         <v>0</v>
       </c>
-      <c r="H69" t="str">
-        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3556,17 +3549,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <f>VLOOKUP(G70,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G70" t="s">
         <v>10</v>
       </c>
-      <c r="H70" t="str">
-        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3581,17 +3574,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="str">
+        <f>VLOOKUP(G71,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G71" t="s">
         <v>48</v>
       </c>
-      <c r="H71" t="str">
-        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3606,17 +3599,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="str">
+        <f>VLOOKUP(G72,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G72" t="s">
         <v>39</v>
       </c>
-      <c r="H72" t="str">
-        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3633,15 +3626,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="str">
+        <f>VLOOKUP(G73,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G73" t="s">
         <v>48</v>
       </c>
-      <c r="H73" t="str">
-        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3658,15 +3651,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="str">
+        <f>VLOOKUP(G74,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G74" t="s">
         <v>0</v>
       </c>
-      <c r="H74" t="str">
-        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3683,15 +3676,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="str">
+        <f>VLOOKUP(G75,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G75" t="s">
         <v>5</v>
       </c>
-      <c r="H75" t="str">
-        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3708,15 +3701,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="str">
+        <f>VLOOKUP(G76,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G76" t="s">
         <v>39</v>
       </c>
-      <c r="H76" t="str">
-        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3731,17 +3724,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <f>VLOOKUP(G77,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G77" t="s">
         <v>39</v>
       </c>
-      <c r="H77" t="str">
-        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3756,17 +3749,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="str">
+        <f>VLOOKUP(G78,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G78" t="s">
         <v>39</v>
       </c>
-      <c r="H78" t="str">
-        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3781,17 +3774,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="str">
+        <f>VLOOKUP(G79,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G79" t="s">
         <v>48</v>
       </c>
-      <c r="H79" t="str">
-        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3806,17 +3799,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="str">
+        <f>VLOOKUP(G80,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G80" t="s">
         <v>48</v>
       </c>
-      <c r="H80" t="str">
-        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3831,17 +3824,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="str">
+        <f>VLOOKUP(G81,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G81" t="s">
         <v>39</v>
       </c>
-      <c r="H81" t="str">
-        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3856,17 +3849,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="str">
+        <f>VLOOKUP(G82,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
       </c>
-      <c r="H82" t="str">
-        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3881,17 +3874,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="str">
+        <f>VLOOKUP(G83,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G83" t="s">
         <v>39</v>
       </c>
-      <c r="H83" t="str">
-        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3906,17 +3899,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" t="str">
+        <f>VLOOKUP(G84,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G84" t="s">
         <v>0</v>
       </c>
-      <c r="H84" t="str">
-        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3931,17 +3924,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="str">
+        <f>VLOOKUP(G85,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G85" t="s">
         <v>48</v>
       </c>
-      <c r="H85" t="str">
-        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3956,17 +3949,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" t="str">
+        <f>VLOOKUP(G86,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G86" t="s">
         <v>39</v>
       </c>
-      <c r="H86" t="str">
-        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3981,17 +3974,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" t="str">
+        <f>VLOOKUP(G87,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G87" t="s">
         <v>0</v>
       </c>
-      <c r="H87" t="str">
-        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -4006,17 +3999,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="str">
+        <f>VLOOKUP(G88,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G88" t="s">
         <v>0</v>
       </c>
-      <c r="H88" t="str">
-        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -4033,15 +4026,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="str">
+        <f>VLOOKUP(G89,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G89" t="s">
         <v>48</v>
       </c>
-      <c r="H89" t="str">
-        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -4056,17 +4049,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" t="str">
+        <f>VLOOKUP(G90,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+      <c r="G90" t="s">
         <v>48</v>
       </c>
-      <c r="H90" t="str">
-        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
-        <v>D004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -4081,17 +4074,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="str">
+        <f>VLOOKUP(G91,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G91" t="s">
         <v>10</v>
       </c>
-      <c r="H91" t="str">
-        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -4108,15 +4101,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="str">
+        <f>VLOOKUP(G92,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+      <c r="G92" t="s">
         <v>39</v>
       </c>
-      <c r="H92" t="str">
-        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
-        <v>D003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -4131,17 +4124,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="str">
+        <f>VLOOKUP(G93,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G93" t="s">
         <v>10</v>
       </c>
-      <c r="H93" t="str">
-        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -4158,15 +4151,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="str">
+        <f>VLOOKUP(G94,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G94" t="s">
         <v>10</v>
       </c>
-      <c r="H94" t="str">
-        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -4181,17 +4174,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" t="str">
+        <f>VLOOKUP(G95,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G95" t="s">
         <v>10</v>
       </c>
-      <c r="H95" t="str">
-        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -4208,15 +4201,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="str">
+        <f>VLOOKUP(G96,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G96" t="s">
         <v>0</v>
       </c>
-      <c r="H96" t="str">
-        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -4231,17 +4224,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" t="str">
+        <f>VLOOKUP(G97,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G97" t="s">
         <v>0</v>
       </c>
-      <c r="H97" t="str">
-        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -4256,17 +4249,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="str">
+        <f>VLOOKUP(G98,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G98" t="s">
         <v>10</v>
       </c>
-      <c r="H98" t="str">
-        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -4281,17 +4274,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="str">
+        <f>VLOOKUP(G99,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+      <c r="G99" t="s">
         <v>10</v>
       </c>
-      <c r="H99" t="str">
-        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -4308,15 +4301,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="str">
+        <f>VLOOKUP(G100,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+      <c r="G100" t="s">
         <v>5</v>
       </c>
-      <c r="H100" t="str">
-        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -4331,14 +4324,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="str">
+        <f>VLOOKUP(G101,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+      <c r="G101" t="s">
         <v>0</v>
-      </c>
-      <c r="H101" t="str">
-        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
-        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4371,16 +4364,16 @@
         <v>426</v>
       </c>
       <c r="C1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E1" t="s">
         <v>427</v>
       </c>
       <c r="F1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,17 +4384,17 @@
         <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-591-2925</v>
+        <v>062-934-7581</v>
       </c>
       <c r="F2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4412,17 +4405,17 @@
         <v>419</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-725-3068</v>
+        <v>062-364-3062</v>
       </c>
       <c r="F3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4433,17 +4426,17 @@
         <v>420</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-748-4277</v>
+        <v>062-404-2565</v>
       </c>
       <c r="F4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4454,17 +4447,17 @@
         <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-552-8650</v>
+        <v>062-645-9889</v>
       </c>
       <c r="F5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4475,17 +4468,17 @@
         <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-663-6827</v>
+        <v>062-574-7569</v>
       </c>
       <c r="F6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4544,14 +4537,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-9029-1828</v>
+        <v>010-1867-2154</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4566,14 +4559,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-2134-1311</v>
+        <v>010-7408-1872</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4588,14 +4581,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9820-4421</v>
+        <v>010-1376-2670</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4610,14 +4603,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7887-2027</v>
+        <v>010-0300-7214</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4632,14 +4625,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6129-7740</v>
+        <v>010-2381-8676</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4654,14 +4647,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5175-8280</v>
+        <v>010-0112-5783</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4676,14 +4669,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3002-3604</v>
+        <v>010-8321-4168</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4698,14 +4691,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2946-8669</v>
+        <v>010-9479-2620</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4720,7 +4713,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7847-2912</v>
+        <v>010-4785-0630</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
@@ -4742,14 +4735,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5162-9362</v>
+        <v>010-8627-1891</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4764,14 +4757,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8691-5692</v>
+        <v>010-3372-3071</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4786,14 +4779,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7675-5010</v>
+        <v>010-0159-2398</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4808,14 +4801,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1611-8327</v>
+        <v>010-8130-5878</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4830,14 +4823,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9250-5424</v>
+        <v>010-5908-0664</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4852,14 +4845,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1831-1175</v>
+        <v>010-6901-4503</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4874,14 +4867,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9723-7533</v>
+        <v>010-9892-0738</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4896,14 +4889,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7795-9065</v>
+        <v>010-3747-8058</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4918,14 +4911,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2895-1227</v>
+        <v>010-6716-1541</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4940,7 +4933,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9935-3057</v>
+        <v>010-0611-2933</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
@@ -4962,14 +4955,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3496-5346</v>
+        <v>010-8554-7260</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4984,14 +4977,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0385-0009</v>
+        <v>010-0748-9720</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -5006,14 +4999,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8960-4117</v>
+        <v>010-8497-6308</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -5028,14 +5021,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2056-1970</v>
+        <v>010-1888-5102</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -5050,14 +5043,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6115-7468</v>
+        <v>010-0768-4419</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -5072,7 +5065,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6289-3881</v>
+        <v>010-8764-6196</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
@@ -5094,14 +5087,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4211-3929</v>
+        <v>010-0425-5391</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -5116,14 +5109,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4664-5287</v>
+        <v>010-5924-6292</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -5138,14 +5131,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8675-3198</v>
+        <v>010-1482-3372</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5160,14 +5153,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4371-6767</v>
+        <v>010-2143-3476</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5182,14 +5175,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3286-1506</v>
+        <v>010-2456-1970</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5204,14 +5197,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5275-1043</v>
+        <v>010-1057-1954</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -5226,14 +5219,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1495-6054</v>
+        <v>010-7461-6532</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -5248,14 +5241,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9438-8739</v>
+        <v>010-7383-9657</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5270,7 +5263,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0465-1945</v>
+        <v>010-9163-2981</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
@@ -5292,14 +5285,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1996-0551</v>
+        <v>010-5111-9460</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5314,14 +5307,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8502-3945</v>
+        <v>010-8742-6094</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5336,14 +5329,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7489-6736</v>
+        <v>010-2731-8654</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5358,14 +5351,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1587-9514</v>
+        <v>010-4532-0218</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -5380,14 +5373,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5763-5413</v>
+        <v>010-0542-2929</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5402,14 +5395,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1995-7350</v>
+        <v>010-1128-0178</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5424,14 +5417,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1007-1615</v>
+        <v>010-0827-6698</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5446,14 +5439,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6142-5828</v>
+        <v>010-4291-3518</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5468,14 +5461,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7177-1013</v>
+        <v>010-0765-5486</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5490,14 +5483,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3610-8417</v>
+        <v>010-7747-3097</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5512,14 +5505,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2300-4644</v>
+        <v>010-2069-5756</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5534,14 +5527,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6194-4938</v>
+        <v>010-2387-3560</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5556,14 +5549,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1585-7192</v>
+        <v>010-2418-3115</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5578,14 +5571,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5329-0796</v>
+        <v>010-5856-0511</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5600,14 +5593,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0742-2852</v>
+        <v>010-8708-8511</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5622,14 +5615,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1451-0667</v>
+        <v>010-0766-9080</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5644,14 +5637,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8305-3193</v>
+        <v>010-3193-3126</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5666,14 +5659,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6263-1891</v>
+        <v>010-2702-8140</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5688,14 +5681,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1126-7185</v>
+        <v>010-5548-2072</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5710,14 +5703,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3184-5669</v>
+        <v>010-8902-7349</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5732,7 +5725,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4591-9422</v>
+        <v>010-6535-4191</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5754,14 +5747,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5479-3295</v>
+        <v>010-3700-8635</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5776,7 +5769,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2242-8405</v>
+        <v>010-8716-8754</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
@@ -5798,14 +5791,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7020-2107</v>
+        <v>010-9080-5432</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5820,14 +5813,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8793-6387</v>
+        <v>010-2828-2677</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5842,14 +5835,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0589-9123</v>
+        <v>010-2180-6089</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5864,14 +5857,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2216-2803</v>
+        <v>010-3199-3806</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5886,14 +5879,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1602-3517</v>
+        <v>010-7702-6556</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5908,14 +5901,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7560-7484</v>
+        <v>010-8746-3344</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5930,14 +5923,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9975-7296</v>
+        <v>010-1163-5086</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5952,14 +5945,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9584-3039</v>
+        <v>010-6271-9831</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5974,14 +5967,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-8872-5697</v>
+        <v>010-1172-1292</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5996,14 +5989,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3491-2932</v>
+        <v>010-5767-6852</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -6018,14 +6011,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8006-1237</v>
+        <v>010-9643-1583</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -6040,14 +6033,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2591-3140</v>
+        <v>010-0910-1590</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -6062,7 +6055,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4045-6127</v>
+        <v>010-3012-6053</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -6084,7 +6077,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8134-4436</v>
+        <v>010-5624-1950</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
@@ -6106,14 +6099,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9884-3680</v>
+        <v>010-3726-5103</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -6128,14 +6121,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1616-2533</v>
+        <v>010-8042-1385</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -6150,7 +6143,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4693-6555</v>
+        <v>010-3253-1420</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
@@ -6172,14 +6165,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2008-4322</v>
+        <v>010-0589-3607</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -6194,7 +6187,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7767-9918</v>
+        <v>010-4432-2960</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
@@ -6216,14 +6209,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8923-7082</v>
+        <v>010-3243-8629</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -6238,14 +6231,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8096-3875</v>
+        <v>010-4098-8255</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -6260,14 +6253,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4541-8415</v>
+        <v>010-7155-8616</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6282,14 +6275,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8145-0896</v>
+        <v>010-3056-5945</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6304,14 +6297,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2155-8283</v>
+        <v>010-7184-0580</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -6326,7 +6319,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7026-9516</v>
+        <v>010-1594-8816</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
@@ -6348,7 +6341,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7631-6033</v>
+        <v>010-8278-6196</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -6370,14 +6363,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6508-2153</v>
+        <v>010-5650-6647</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6392,14 +6385,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4473-5355</v>
+        <v>010-6595-3997</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6414,7 +6407,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3877-4754</v>
+        <v>010-8947-5530</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -6436,14 +6429,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7800-4906</v>
+        <v>010-3467-8982</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6458,14 +6451,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7953-0092</v>
+        <v>010-9752-5671</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6480,14 +6473,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3015-7510</v>
+        <v>010-7229-6414</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6502,14 +6495,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9048-8397</v>
+        <v>010-7892-0431</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6524,7 +6517,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0120-6810</v>
+        <v>010-4343-8592</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
@@ -6546,14 +6539,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0936-7814</v>
+        <v>010-5710-7492</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6568,14 +6561,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4020-2076</v>
+        <v>010-7841-1284</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6590,14 +6583,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0407-7030</v>
+        <v>010-2070-8642</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6612,14 +6605,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3200-2494</v>
+        <v>010-9533-7847</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6634,14 +6627,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0601-0373</v>
+        <v>010-4847-7838</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6656,7 +6649,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5905-5468</v>
+        <v>010-3242-7662</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -6678,14 +6671,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3172-8277</v>
+        <v>010-6219-6379</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6700,14 +6693,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5904-3901</v>
+        <v>010-5668-9321</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6722,14 +6715,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5150-3614</v>
+        <v>010-0688-4645</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6786,19 +6779,19 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
         <v>74</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -6811,23 +6804,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
         <v>97</v>
       </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6836,23 +6829,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6861,23 +6854,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
         <v>98</v>
       </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,11 +6879,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -6898,11 +6891,11 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6911,23 +6904,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6936,23 +6929,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,23 +6954,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6986,23 +6979,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,23 +7004,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7036,23 +7029,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7061,23 +7054,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7086,23 +7079,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7111,23 +7104,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7136,11 +7129,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
@@ -7148,7 +7141,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
@@ -7161,23 +7154,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7186,23 +7179,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7211,23 +7204,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7236,23 +7229,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,23 +7254,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7286,23 +7279,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7311,23 +7304,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7336,23 +7329,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7361,23 +7354,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7386,23 +7379,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7411,23 +7404,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7436,19 +7429,19 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
@@ -7461,23 +7454,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,23 +7479,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7511,23 +7504,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7536,7 +7529,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
@@ -7544,15 +7537,15 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7561,23 +7554,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,23 +7579,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7615,19 +7608,19 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7636,23 +7629,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7661,23 +7654,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7686,23 +7679,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7711,23 +7704,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7736,23 +7729,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7761,23 +7754,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7786,23 +7779,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7811,23 +7804,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7836,23 +7829,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7861,23 +7854,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7886,23 +7879,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
         <v>86</v>
       </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7911,23 +7904,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7936,23 +7929,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7961,15 +7954,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
@@ -7977,7 +7970,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,23 +7979,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -8011,19 +8004,19 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
@@ -8036,23 +8029,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -8061,23 +8054,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8086,23 +8079,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8111,19 +8104,19 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
@@ -8136,19 +8129,19 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
@@ -8161,23 +8154,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8186,15 +8179,15 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
@@ -8202,7 +8195,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8211,23 +8204,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8236,23 +8229,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8261,23 +8254,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,23 +8279,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8311,23 +8304,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8336,23 +8329,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8361,23 +8354,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8386,23 +8379,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8411,23 +8404,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8436,23 +8429,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8461,7 +8454,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
@@ -8469,15 +8462,15 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8486,23 +8479,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8511,23 +8504,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8536,23 +8529,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8561,23 +8554,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8586,23 +8579,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8611,23 +8604,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8636,23 +8629,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8661,23 +8654,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,23 +8679,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8711,23 +8704,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8736,23 +8729,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8761,23 +8754,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8786,23 +8779,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8811,23 +8804,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8836,23 +8829,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8861,23 +8854,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8886,23 +8879,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8911,23 +8904,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8936,23 +8929,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8961,23 +8954,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8986,23 +8979,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -9011,23 +9004,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -9036,19 +9029,19 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
@@ -9061,23 +9054,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -9086,23 +9079,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -9111,7 +9104,7 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
@@ -9119,15 +9112,15 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -9136,23 +9129,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -9161,23 +9154,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -9186,23 +9179,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9211,23 +9204,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -9236,23 +9229,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9261,23 +9254,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
